--- a/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
+++ b/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.41</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>88.17</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.65</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002236</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成中证360互联网+大数据100指数A</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003359</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成中证360互联网+大数据100指数C</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8833</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>63.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.08</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>005983</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>上投摩根核心精选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -790,25 +900,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>002236</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>大成中证360互联网+大数据100指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>003359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>大成中证360互联网+大数据100指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
+++ b/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8419</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4970</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
+++ b/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1942,4 +1943,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
+++ b/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2189,4 +2190,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
+++ b/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>5.64</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2394,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="5">
@@ -2277,13 +2410,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
+++ b/数据整理/stocks/A股/深证主板/002614-奥佳华.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>5.64</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>2.7</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -566,6 +583,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -943,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1911,7 +2022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2271,7 +2382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
